--- a/IQCM/DataSource/MóduloCas.xlsx
+++ b/IQCM/DataSource/MóduloCas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQCM\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426C215-4D31-4A1C-9C40-0C48FBB591C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B052591-7C44-477A-B9EC-A94D1AD057A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
   <si>
     <t>NroIdentificacion</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>F7E06379-EEF8-4256-9A7B-97D52317C370</t>
-  </si>
-  <si>
-    <t>CA185F46-2538-48A6-AE81-A5F4746ABBE2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>02222021</t>
@@ -401,6 +395,15 @@
   </si>
   <si>
     <t>sala de observacion ( urgencias) de complejidad al</t>
+  </si>
+  <si>
+    <t>1300598D-58DF-4CD9-AC33-062D8A261DE8</t>
+  </si>
+  <si>
+    <t>1300598D-58DF-4CD9-AC33-062D8A261DE9</t>
+  </si>
+  <si>
+    <t>1300598D-58DF-4CD9-AC33-062D8A261DE10</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,6 +458,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,12 +854,12 @@
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -865,22 +871,22 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29217C-980D-4FFE-AEFF-447CDE9F4121}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,16 +938,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1098817112</v>
+        <v>1120367774</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>216990</v>
@@ -958,16 +964,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1120367774</v>
+        <v>17179633</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>35000</v>
@@ -984,16 +990,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17179633</v>
+        <v>1098817112</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>302000</v>
@@ -1010,16 +1016,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1098817112</v>
+        <v>1025543536</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>314130</v>
@@ -1036,16 +1042,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1025543536</v>
+        <v>1022995494</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>40000</v>
@@ -1062,16 +1068,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1022995494</v>
+        <v>1000034632</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>316725</v>
@@ -1088,16 +1094,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1073520781</v>
+        <v>1000809475</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>236800</v>
@@ -1114,16 +1120,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1007437627</v>
+        <v>1001219464</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>272916</v>
@@ -1140,16 +1146,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23494880</v>
+        <v>1005297220</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>236800</v>
@@ -1166,16 +1172,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1098817112</v>
+        <v>1010009935</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>236469</v>
@@ -1192,16 +1198,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1098817112</v>
+        <v>1010212546</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>384000</v>
@@ -1218,16 +1224,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1073487141</v>
+        <v>1010236143</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>217690</v>
@@ -1244,16 +1250,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1050615239</v>
+        <v>1010242403</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>380300</v>
@@ -1270,16 +1276,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1098817112</v>
+        <v>1011096586</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>216990</v>
@@ -1296,16 +1302,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19451609</v>
+        <v>1011205419</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>384720</v>
@@ -1322,16 +1328,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1099282017</v>
+        <v>1011256415</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>167166</v>
@@ -1348,16 +1354,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11251728</v>
+        <v>1012386884</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>301704</v>
@@ -1374,16 +1380,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1125268689</v>
+        <v>1013154818</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>302000</v>
@@ -1400,16 +1406,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11290835</v>
+        <v>1013606886</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>326030</v>
@@ -1426,16 +1432,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11290987</v>
+        <v>1014257709</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>341550</v>
@@ -1452,16 +1458,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11296304</v>
+        <v>1014743138</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>316725</v>
@@ -1478,16 +1484,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11297790</v>
+        <v>1014744841</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>114800</v>
@@ -1504,16 +1510,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11299573</v>
+        <v>1014866879</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>285574</v>
@@ -1530,16 +1536,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11315090</v>
+        <v>1014880552</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>201221</v>
@@ -1556,16 +1562,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11330500</v>
+        <v>1014899872</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>344915</v>
@@ -1582,16 +1588,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11331233</v>
+        <v>1014999432</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>303786</v>
@@ -1608,16 +1614,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1135990</v>
+        <v>1015392369</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>455704</v>
@@ -1634,16 +1640,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1136879141</v>
+        <v>1015473599</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>390200</v>
@@ -1660,16 +1666,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11371013</v>
+        <v>1016020580</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <v>347200</v>
@@ -1775,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,482 +1812,582 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2">
         <v>72330</v>
       </c>
       <c r="C2">
-        <v>1098817112</v>
+        <v>1120367774</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>81</v>
+      <c r="A3" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B3">
         <v>72330</v>
       </c>
       <c r="C3">
-        <v>1098817112</v>
+        <v>1120367774</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
+      <c r="A4" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B4">
         <v>72330</v>
       </c>
       <c r="C4">
-        <v>1098817112</v>
+        <v>1120367774</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>20108009</v>
       </c>
       <c r="B5">
-        <v>326030</v>
+        <v>8750</v>
       </c>
       <c r="C5">
-        <v>1120367774</v>
+        <v>17179633</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>20108009</v>
       </c>
       <c r="B6">
-        <v>316725</v>
+        <v>8750</v>
       </c>
       <c r="C6">
         <v>17179633</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>8750</v>
+      </c>
+      <c r="C7">
+        <v>17179633</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>890701</v>
+      </c>
+      <c r="B8">
+        <v>8750</v>
+      </c>
+      <c r="C8">
+        <v>17179633</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B9">
+        <v>302000</v>
+      </c>
+      <c r="C9">
+        <v>1098817112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>200436442</v>
+      </c>
+      <c r="B10">
+        <v>314130</v>
+      </c>
+      <c r="C10">
+        <v>1025543536</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>40000</v>
+      </c>
+      <c r="C11">
+        <v>1022995494</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>20108009</v>
+      </c>
+      <c r="B12">
+        <v>316725</v>
+      </c>
+      <c r="C12">
+        <v>1000034632</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>424</v>
+      </c>
+      <c r="B13">
+        <v>236800</v>
+      </c>
+      <c r="C13">
+        <v>1000809475</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>199482801</v>
+      </c>
+      <c r="B14">
+        <v>272916</v>
+      </c>
+      <c r="C14">
+        <v>1001219464</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>236800</v>
+      </c>
+      <c r="C15">
+        <v>1005297220</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>20108009</v>
+      </c>
+      <c r="B16">
+        <v>236469</v>
+      </c>
+      <c r="C16">
+        <v>1010009935</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>20108009</v>
+      </c>
+      <c r="B17">
+        <v>384000</v>
+      </c>
+      <c r="C17">
+        <v>1010212546</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>217690</v>
+      </c>
+      <c r="C18">
+        <v>1010236143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B19">
+        <v>380300</v>
+      </c>
+      <c r="C19">
+        <v>1010242403</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>890701</v>
+      </c>
+      <c r="B20">
+        <v>216990</v>
+      </c>
+      <c r="C20">
+        <v>1011096586</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B21">
         <v>384720</v>
       </c>
-      <c r="C7">
-        <v>1025543536</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C21">
+        <v>1011205419</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>200436442</v>
+      </c>
+      <c r="B22">
+        <v>167166</v>
+      </c>
+      <c r="C22">
+        <v>1011256415</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>301704</v>
+      </c>
+      <c r="C23">
+        <v>1012386884</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1992428549</v>
+      </c>
+      <c r="B24">
+        <v>302000</v>
+      </c>
+      <c r="C24">
+        <v>1013154818</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>199427775</v>
+      </c>
+      <c r="B25">
+        <v>326030</v>
+      </c>
+      <c r="C25">
+        <v>1013606886</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>20108009</v>
+      </c>
+      <c r="B26">
+        <v>341550</v>
+      </c>
+      <c r="C26">
+        <v>1014257709</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>424</v>
+      </c>
+      <c r="B27">
+        <v>316725</v>
+      </c>
+      <c r="C27">
+        <v>1014743138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>890701</v>
       </c>
-      <c r="B8">
-        <v>236800</v>
-      </c>
-      <c r="C8">
-        <v>1022995494</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B28">
+        <v>114800</v>
+      </c>
+      <c r="C28">
+        <v>1014744841</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>199482801</v>
+      </c>
+      <c r="B29">
+        <v>285574</v>
+      </c>
+      <c r="C29">
+        <v>1014866879</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>201221</v>
+      </c>
+      <c r="C30">
+        <v>1014880552</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>344915</v>
+      </c>
+      <c r="C31">
+        <v>1014899872</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>890701</v>
+      </c>
+      <c r="B32">
+        <v>303786</v>
+      </c>
+      <c r="C32">
+        <v>1014999432</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>1017</v>
       </c>
-      <c r="B9">
-        <v>309300</v>
-      </c>
-      <c r="C9">
-        <v>1073520781</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B33">
+        <v>455704</v>
+      </c>
+      <c r="C33">
+        <v>1015392369</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>200436442</v>
       </c>
-      <c r="B10">
-        <v>302000</v>
-      </c>
-      <c r="C10">
-        <v>1007437627</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B34">
+        <v>390200</v>
+      </c>
+      <c r="C34">
+        <v>1015473599</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>314130</v>
-      </c>
-      <c r="C11">
-        <v>23494880</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20108009</v>
-      </c>
-      <c r="B12">
-        <v>380300</v>
-      </c>
-      <c r="C12">
-        <v>1073487141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>424</v>
-      </c>
-      <c r="B13">
-        <v>390200</v>
-      </c>
-      <c r="C13">
-        <v>1050615239</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>199482801</v>
-      </c>
-      <c r="B14">
-        <v>285574</v>
-      </c>
-      <c r="C14">
-        <v>19451609</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>301704</v>
-      </c>
-      <c r="C15">
-        <v>1099282017</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20108009</v>
-      </c>
-      <c r="B16">
-        <v>272916</v>
-      </c>
-      <c r="C16">
-        <v>11251728</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20108009</v>
-      </c>
-      <c r="B17">
-        <v>236469</v>
-      </c>
-      <c r="C17">
-        <v>1125268689</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>201221</v>
-      </c>
-      <c r="C18">
-        <v>11290835</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>344915</v>
-      </c>
-      <c r="C19">
-        <v>11290987</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>890701</v>
-      </c>
-      <c r="B20">
-        <v>303786</v>
-      </c>
-      <c r="C20">
-        <v>11296304</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1017</v>
-      </c>
-      <c r="B21">
-        <v>216990</v>
-      </c>
-      <c r="C21">
-        <v>11297790</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>200436442</v>
-      </c>
-      <c r="B22">
-        <v>217690</v>
-      </c>
-      <c r="C22">
-        <v>11299573</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>40000</v>
-      </c>
-      <c r="C23">
-        <v>11315090</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1992428549</v>
-      </c>
-      <c r="B24">
-        <v>35000</v>
-      </c>
-      <c r="C24">
-        <v>11330500</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>199427775</v>
-      </c>
-      <c r="B25">
-        <v>167166</v>
-      </c>
-      <c r="C25">
-        <v>11331233</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B35">
+        <v>347200</v>
+      </c>
+      <c r="C35">
+        <v>1016020580</v>
+      </c>
+      <c r="D35" t="s">
         <v>105</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20108009</v>
-      </c>
-      <c r="B26">
-        <v>114800</v>
-      </c>
-      <c r="C26">
-        <v>1135990</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>424</v>
-      </c>
-      <c r="B27">
-        <v>347200</v>
-      </c>
-      <c r="C27">
-        <v>1136879141</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>890701</v>
-      </c>
-      <c r="B28">
-        <v>341550</v>
-      </c>
-      <c r="C28">
-        <v>11371013</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>199482801</v>
-      </c>
-      <c r="B29">
-        <v>307385</v>
-      </c>
-      <c r="C29">
-        <v>11372210</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IQCM/DataSource/MóduloCas.xlsx
+++ b/IQCM/DataSource/MóduloCas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQCM\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B052591-7C44-477A-B9EC-A94D1AD057A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB38ED-EB6A-4418-91A9-F78A614A2932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="109">
   <si>
     <t>NroIdentificacion</t>
   </si>
@@ -134,99 +135,6 @@
   </si>
   <si>
     <t>Cuentas Medicas</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>CE0B56E8-EDC7-487D-8E6F-7323E1AA770C</t>
-  </si>
-  <si>
-    <t>1B787779-963A-4F4F-AD91-94152AD956C2</t>
-  </si>
-  <si>
-    <t>B6C5D454-DD9C-4A47-8B18-B30F7EC5A67C</t>
-  </si>
-  <si>
-    <t>964EF25F-6993-4D8A-BE29-3D25CC8E2830</t>
-  </si>
-  <si>
-    <t>3567869E-86CE-4207-9C64-3D52FB408DB7</t>
-  </si>
-  <si>
-    <t>C2D181D2-1A11-4314-98A7-3E4A62008082</t>
-  </si>
-  <si>
-    <t>5D8D2430-B003-40B5-B360-1ED927CC7FEB</t>
-  </si>
-  <si>
-    <t>2BB0C95C-E61C-4B24-A10C-31540682A29C</t>
-  </si>
-  <si>
-    <t>F9D901BA-9251-4301-AA27-9255CDBE2844</t>
-  </si>
-  <si>
-    <t>A2751F97-8CC5-42BA-BF46-4B5F82DCCE2F</t>
-  </si>
-  <si>
-    <t>598D73A8-A0CA-4472-8F12-55B6F2C2A5CA</t>
-  </si>
-  <si>
-    <t>13C54B7E-A32B-40EF-9E72-F483C8ADB486</t>
-  </si>
-  <si>
-    <t>8018CF12-2A78-4B94-AE97-ECACD4F0C9FA</t>
-  </si>
-  <si>
-    <t>5CB79F6E-3A94-4EF3-B7F0-D20A4D1B193A</t>
-  </si>
-  <si>
-    <t>466FA58A-45FE-4A9C-A45D-7E9B9670A6A5</t>
-  </si>
-  <si>
-    <t>F3B3567D-259A-4F3F-A427-3D9F2B2D343B</t>
-  </si>
-  <si>
-    <t>B6437223-8250-4265-BD73-44B4E5471A1A</t>
-  </si>
-  <si>
-    <t>5E727324-04E7-4F1E-AF0B-D409EE4AB170</t>
-  </si>
-  <si>
-    <t>A9BF7B81-4722-4EE1-87F3-DD1D25C36225</t>
-  </si>
-  <si>
-    <t>938843CC-E213-417A-A6C5-E4F20D7A074B</t>
-  </si>
-  <si>
-    <t>7FE208D1-185B-49EE-B1E0-6B0B118EB8A6</t>
-  </si>
-  <si>
-    <t>681DE692-7BA2-4929-AC81-53D97D3D0C12</t>
-  </si>
-  <si>
-    <t>D3AFAE6F-2DFE-4573-BE12-36386BD93116</t>
-  </si>
-  <si>
-    <t>1300598D-58DF-4CD9-AC33-062D8A261DE7</t>
-  </si>
-  <si>
-    <t>4AC631C6-8FF4-463C-8FB8-772BCD717485</t>
-  </si>
-  <si>
-    <t>46B332FD-3F20-43FB-AC91-C9FC793B2ABA</t>
-  </si>
-  <si>
-    <t>41468B1F-497D-4BE9-8AB1-FC09B662690E</t>
-  </si>
-  <si>
-    <t>F7E06379-EEF8-4256-9A7B-97D52317C370</t>
-  </si>
-  <si>
-    <t>02222021</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT valortotal,replace(convert(nvarchar,FechaFactura,101),'/',''),p.nombre,c.* </t>
@@ -256,57 +164,30 @@
     <t>03012021</t>
   </si>
   <si>
-    <t>03062021</t>
-  </si>
-  <si>
     <t>02242021</t>
   </si>
   <si>
     <t>03032021</t>
   </si>
   <si>
-    <t>02102021</t>
-  </si>
-  <si>
     <t>02232021</t>
   </si>
   <si>
-    <t>03122021</t>
-  </si>
-  <si>
     <t>02182021</t>
   </si>
   <si>
     <t>03022021</t>
   </si>
   <si>
-    <t>02192021</t>
-  </si>
-  <si>
     <t>02092021</t>
   </si>
   <si>
     <t>02082021</t>
   </si>
   <si>
-    <t>03042021</t>
-  </si>
-  <si>
     <t>03052021</t>
   </si>
   <si>
-    <t>01222021</t>
-  </si>
-  <si>
-    <t>03112021</t>
-  </si>
-  <si>
-    <t>03042020</t>
-  </si>
-  <si>
-    <t>02252021</t>
-  </si>
-  <si>
     <t>864204-0</t>
   </si>
   <si>
@@ -397,20 +278,131 @@
     <t>sala de observacion ( urgencias) de complejidad al</t>
   </si>
   <si>
-    <t>1300598D-58DF-4CD9-AC33-062D8A261DE8</t>
-  </si>
-  <si>
-    <t>1300598D-58DF-4CD9-AC33-062D8A261DE9</t>
-  </si>
-  <si>
-    <t>1300598D-58DF-4CD9-AC33-062D8A261DE10</t>
+    <t>7B5FA804-3FE2-4DBE-B537-3292C74F4903</t>
+  </si>
+  <si>
+    <t>CE43CBCB-5CCD-4752-BEF2-0939DB7EB5FB</t>
+  </si>
+  <si>
+    <t>AAC3BCCD-5359-49FD-8D99-138D02B181B7</t>
+  </si>
+  <si>
+    <t>9DA5D1E3-8572-45E8-93DC-0A27F0484D24</t>
+  </si>
+  <si>
+    <t>B12243E8-AC7B-4837-A500-B3CA94B9B173</t>
+  </si>
+  <si>
+    <t>7121038C-3325-4D28-A70A-C15D62F2F69C</t>
+  </si>
+  <si>
+    <t>7EB032FF-2D5A-4ADE-A537-3E3D4BCFB6A0</t>
+  </si>
+  <si>
+    <t>C5A7DEEC-EA99-4ADF-A7E3-48DFBCED7435</t>
+  </si>
+  <si>
+    <t>11F37A04-CE97-45E5-95BD-07EB002E032C</t>
+  </si>
+  <si>
+    <t>904C06EF-800A-4CFD-8E47-31D7BC499E79</t>
+  </si>
+  <si>
+    <t>58D11139-641A-4EC4-9498-62D6381CCE75</t>
+  </si>
+  <si>
+    <t>D842D395-1D6B-4272-9021-51E2A08F59A7</t>
+  </si>
+  <si>
+    <t>18FB15E8-48DC-4EF8-8A50-48C43449A236</t>
+  </si>
+  <si>
+    <t>6768ECF5-313C-416F-879E-7D1E403FA595</t>
+  </si>
+  <si>
+    <t>E842A0BE-FB81-4A45-A586-1626D4BF0C79</t>
+  </si>
+  <si>
+    <t>57AA0C10-4F51-4A6F-96ED-54616D9EDA0D</t>
+  </si>
+  <si>
+    <t>08BCA5DC-1FE7-452E-A549-251D90AF3546</t>
+  </si>
+  <si>
+    <t>07E62107-59A9-4D89-BF78-28E388B7FACE</t>
+  </si>
+  <si>
+    <t>CC91EE4A-F19B-43DA-82DC-8F613387935A</t>
+  </si>
+  <si>
+    <t>C88D648D-2C31-4A6D-A1CD-B634D4F8A110</t>
+  </si>
+  <si>
+    <t>86597C0C-9B38-4B0B-ACD0-2BFC708E9010</t>
+  </si>
+  <si>
+    <t>D2B2A0C7-CB7B-489A-AA78-0FBB69F30310</t>
+  </si>
+  <si>
+    <t>971D299A-A65A-4549-9366-E4361F3200D7</t>
+  </si>
+  <si>
+    <t>0529749E-EF6E-4AC4-B34D-DB286EDB56AC</t>
+  </si>
+  <si>
+    <t>AF29B00E-C905-4EF9-90C3-D5F57CFC7406</t>
+  </si>
+  <si>
+    <t>CAEDD96F-4360-43A9-95EB-6108DB439425</t>
+  </si>
+  <si>
+    <t>15E03412-BBE7-460E-A94F-050BF1196164</t>
+  </si>
+  <si>
+    <t>03102021</t>
+  </si>
+  <si>
+    <t>02172021</t>
+  </si>
+  <si>
+    <t>02272021</t>
+  </si>
+  <si>
+    <t>02212021</t>
+  </si>
+  <si>
+    <t>02042021</t>
+  </si>
+  <si>
+    <t>02052021</t>
+  </si>
+  <si>
+    <t>02012021</t>
+  </si>
+  <si>
+    <t>02262021</t>
+  </si>
+  <si>
+    <t>02162021</t>
+  </si>
+  <si>
+    <t>02202021</t>
+  </si>
+  <si>
+    <t>02152021</t>
+  </si>
+  <si>
+    <t>02072021</t>
+  </si>
+  <si>
+    <t>02122021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +415,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,6 +458,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,12 +855,12 @@
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -871,22 +872,22 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -898,12 +899,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29217C-980D-4FFE-AEFF-447CDE9F4121}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -936,21 +938,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1120367774</v>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1000000683</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>216990</v>
+        <v>302000</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -959,24 +961,24 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>17179633</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1000004358</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>35000</v>
+        <v>485914</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -985,24 +987,24 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1098817112</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1000005659</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>302000</v>
+        <v>408997</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1011,24 +1013,24 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1025543536</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1000005924</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>314130</v>
+        <v>206855</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1037,24 +1039,24 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1022995494</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1000006401</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>40000</v>
+        <v>290821</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1063,24 +1065,24 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1000034632</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1000017276</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>316725</v>
+        <v>337400</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1089,24 +1091,24 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1000809475</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1000019050</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>236800</v>
+        <v>295498</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1115,24 +1117,24 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1001219464</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1000019800</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>272916</v>
+        <v>266708</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1141,24 +1143,24 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1005297220</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1000033689</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>236800</v>
+        <v>494731</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1167,24 +1169,24 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1010009935</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1000034213</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>236469</v>
+        <v>232664</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -1193,24 +1195,24 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1010212546</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1000034322</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E12">
-        <v>384000</v>
+        <v>247537</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1219,24 +1221,24 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1010236143</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1000034613</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E13">
-        <v>217690</v>
+        <v>349120</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1245,24 +1247,24 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1010242403</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1000046977</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>380300</v>
+        <v>302794</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1271,24 +1273,24 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1011096586</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1000047376</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>216990</v>
+        <v>282190</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1296,25 +1298,25 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1011205419</v>
+      <c r="H15" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1000047710</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>384720</v>
+        <v>264198</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -1323,24 +1325,24 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1011256415</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1000048186</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E17">
-        <v>167166</v>
+        <v>416600</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -1349,24 +1351,24 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1012386884</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10000493</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>301704</v>
+        <v>379896</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -1375,24 +1377,24 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1013154818</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1000049314</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E19">
-        <v>302000</v>
+        <v>496727</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -1400,25 +1402,25 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1013606886</v>
+      <c r="H19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10000561</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E20">
-        <v>326030</v>
+        <v>333141</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
@@ -1427,24 +1429,24 @@
         <v>11</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1014257709</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1000001973</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>341550</v>
+        <v>217000</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
@@ -1453,24 +1455,24 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1014743138</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1000063708</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>316725</v>
+        <v>216990</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -1478,25 +1480,25 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1014744841</v>
+      <c r="H22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>1000003550</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>114800</v>
+        <v>216990</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1505,24 +1507,24 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1014866879</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1000003597</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>285574</v>
+        <v>334244</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1531,76 +1533,76 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1014880552</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1000063741</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E25">
-        <v>201221</v>
+        <v>463390</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1014899872</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1000007722</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>344915</v>
+        <v>103600</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1014999432</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1000018244</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>303786</v>
+        <v>316725</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
@@ -1609,24 +1611,24 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1015392369</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1000018404</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>455704</v>
+        <v>297544</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
@@ -1635,24 +1637,24 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1015473599</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1000032064</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E29">
-        <v>390200</v>
+        <v>337400</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
@@ -1661,24 +1663,24 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1016020580</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1000033576</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E30">
-        <v>347200</v>
+        <v>349120</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
@@ -1687,12 +1689,34 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1000047887</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>282190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
@@ -1781,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,583 +1835,1118 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>199482801</v>
+      </c>
+      <c r="B2">
+        <v>302000</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1000000683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>72330</v>
-      </c>
-      <c r="C2">
-        <v>1120367774</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="B3">
-        <v>72330</v>
-      </c>
-      <c r="C3">
-        <v>1120367774</v>
+        <v>485914</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1000004358</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>72330</v>
-      </c>
-      <c r="C4">
-        <v>1120367774</v>
+        <v>408997</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1000005659</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>20108009</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>8750</v>
-      </c>
-      <c r="C5">
-        <v>17179633</v>
+        <v>206855</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1000005924</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>20108009</v>
       </c>
       <c r="B6">
-        <v>8750</v>
-      </c>
-      <c r="C6">
-        <v>17179633</v>
+        <v>290821</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1000006401</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>20108009</v>
+      </c>
+      <c r="B7">
+        <v>337400</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1000017276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>295498</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1000019050</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>890701</v>
+      </c>
+      <c r="B9">
+        <v>266708</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1000019800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B10">
+        <v>494731</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1000033689</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>200436442</v>
+      </c>
+      <c r="B11">
+        <v>232664</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1000034213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>247537</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1000034322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>8750</v>
-      </c>
-      <c r="C7">
-        <v>17179633</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>890701</v>
-      </c>
-      <c r="B8">
-        <v>8750</v>
-      </c>
-      <c r="C8">
-        <v>17179633</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1017</v>
-      </c>
-      <c r="B9">
-        <v>302000</v>
-      </c>
-      <c r="C9">
-        <v>1098817112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>200436442</v>
-      </c>
-      <c r="B10">
-        <v>314130</v>
-      </c>
-      <c r="C10">
-        <v>1025543536</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>40000</v>
-      </c>
-      <c r="C11">
-        <v>1022995494</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>20108009</v>
       </c>
-      <c r="B12">
-        <v>316725</v>
-      </c>
-      <c r="C12">
-        <v>1000034632</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="B13">
+        <v>349120</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1000034613</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>424</v>
       </c>
-      <c r="B13">
-        <v>236800</v>
-      </c>
-      <c r="C13">
-        <v>1000809475</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>199482801</v>
-      </c>
       <c r="B14">
-        <v>272916</v>
-      </c>
-      <c r="C14">
-        <v>1001219464</v>
+        <v>302794</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1000046977</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>236800</v>
-      </c>
-      <c r="C15">
-        <v>1005297220</v>
+        <v>282190</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1000047376</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>20108009</v>
       </c>
       <c r="B16">
-        <v>236469</v>
-      </c>
-      <c r="C16">
-        <v>1010009935</v>
+        <v>264198</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1000047710</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>20108009</v>
       </c>
       <c r="B17">
-        <v>384000</v>
-      </c>
-      <c r="C17">
-        <v>1010212546</v>
+        <v>416600</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1000048186</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>217690</v>
-      </c>
-      <c r="C18">
-        <v>1010236143</v>
+        <v>379896</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10000493</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>380300</v>
-      </c>
-      <c r="C19">
-        <v>1010242403</v>
+        <v>496727</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1000049314</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>890701</v>
       </c>
       <c r="B20">
-        <v>216990</v>
-      </c>
-      <c r="C20">
-        <v>1011096586</v>
+        <v>333141</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10000561</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
       <c r="B21">
-        <v>384720</v>
-      </c>
-      <c r="C21">
-        <v>1011205419</v>
+        <v>217000</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1000001973</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>200436442</v>
       </c>
       <c r="B22">
-        <v>167166</v>
-      </c>
-      <c r="C22">
-        <v>1011256415</v>
+        <v>216990</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1000063708</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>301704</v>
-      </c>
-      <c r="C23">
-        <v>1012386884</v>
+        <v>216990</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1000003550</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1992428549</v>
       </c>
       <c r="B24">
-        <v>302000</v>
-      </c>
-      <c r="C24">
-        <v>1013154818</v>
+        <v>334244</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1000003597</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>199427775</v>
       </c>
       <c r="B25">
-        <v>326030</v>
-      </c>
-      <c r="C25">
-        <v>1013606886</v>
+        <v>463390</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1000063741</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20108009</v>
       </c>
       <c r="B26">
-        <v>341550</v>
-      </c>
-      <c r="C26">
-        <v>1014257709</v>
+        <v>103600</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1000007722</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>424</v>
       </c>
       <c r="B27">
         <v>316725</v>
       </c>
-      <c r="C27">
-        <v>1014743138</v>
+      <c r="C27" s="9">
+        <v>1000018244</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>890701</v>
       </c>
       <c r="B28">
-        <v>114800</v>
-      </c>
-      <c r="C28">
-        <v>1014744841</v>
+        <v>297544</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1000018404</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>199482801</v>
       </c>
       <c r="B29">
-        <v>285574</v>
-      </c>
-      <c r="C29">
-        <v>1014866879</v>
+        <v>337400</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1000032064</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B30">
-        <v>201221</v>
-      </c>
-      <c r="C30">
-        <v>1014880552</v>
+        <v>349120</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1000033576</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B31">
-        <v>344915</v>
-      </c>
-      <c r="C31">
-        <v>1014899872</v>
+        <v>282190</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1000047887</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>890701</v>
       </c>
       <c r="B32">
-        <v>303786</v>
-      </c>
-      <c r="C32">
-        <v>1014999432</v>
+        <v>295498</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1000018244</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>1017</v>
       </c>
       <c r="B33">
-        <v>455704</v>
-      </c>
-      <c r="C33">
-        <v>1015392369</v>
+        <v>297544</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1000018404</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>200436442</v>
       </c>
       <c r="B34">
-        <v>390200</v>
-      </c>
-      <c r="C34">
-        <v>1015473599</v>
+        <v>337400</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1000032064</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B35">
-        <v>347200</v>
-      </c>
-      <c r="C35">
-        <v>1016020580</v>
+        <v>349120</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1000033576</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>200436442</v>
+      </c>
+      <c r="B36">
+        <v>282190</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1000047887</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32F91F8-6097-4466-9A7D-AE982660D5CF}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>1000000683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1000004358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1000005659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1000005924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1000006401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1000017276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1000019050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1000019800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1000033689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1000034213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1000034322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1000034613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1000046977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1000047376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1000047710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1000048186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>10000493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1000049314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10000561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1000001973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1000063708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1000003550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>1000003597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1000063741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1000007722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1000018244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1000018404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1000032064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1000033576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1000047887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1000048462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1000064137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1000048735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1000064740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>1000049717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>1000065131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>1000049729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>1000077529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1000005202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>1000062458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1000062583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>1000064358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>1000076825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>1000100768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>1000115016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>1000119546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>1000122448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>1000122892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1000123163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1000123268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>1000077533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>1000125775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>1000126843</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>1000127211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>1000130612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>1000135585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>1000136067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>1000137439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>1000143157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>1000149164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>1000149541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>1000149817</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>1000084268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>1000114497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>1000117052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>1000122330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>1000123580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>1000127912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>1000128111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>1000129524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>1000150512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>1000134747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>1000153060</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>1000156228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>1000156972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>1000158484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>1000135960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>1000159064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>1000136365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>1000142757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>1000146233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>1000163365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>1000004510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>1000005807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>1000031815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>1000163588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>1000000847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>1000163939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>1000001658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>1000179574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>1000179730</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>1000180925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>1000181248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>1000181253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>1000182204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>1000182316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>1000182944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>1000182978</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>1000148992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>1000185979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IQCM/DataSource/MóduloCas.xlsx
+++ b/IQCM/DataSource/MóduloCas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQCM\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB38ED-EB6A-4418-91A9-F78A614A2932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D20BF-177F-4629-9EAD-67C60769534B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29217C-980D-4FFE-AEFF-447CDE9F4121}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IQCM/DataSource/MóduloCas.xlsx
+++ b/IQCM/DataSource/MóduloCas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQCM\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D20BF-177F-4629-9EAD-67C60769534B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A188D-24D0-4A02-9457-CE13D6A2BED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
